--- a/Vaccination/17- COVID_Vaccin_6mai2022.xlsx
+++ b/Vaccination/17- COVID_Vaccin_6mai2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre Prud'homme\Dropbox\EnqueteCOVID\Vaccination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6052D0EE-6E3B-499F-93F5-A898DC33006C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCEC96B-01D4-419D-9498-AA813B10E091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F68992BC-3D97-46EB-BD5B-2F68FCC43DD4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F68992BC-3D97-46EB-BD5B-2F68FCC43DD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Vaccination" sheetId="9" r:id="rId1"/>
@@ -654,16 +654,13 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -678,9 +675,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -689,6 +683,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2342,8 +2342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF55A923-1A6C-4817-A299-5D6D51A5C9D0}">
   <dimension ref="A1:AJ30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection sqref="A1:AJ1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="AJ11" sqref="AJ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2368,185 +2368,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
     </row>
     <row r="2" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="42" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="42" t="s">
+      <c r="F2" s="53"/>
+      <c r="G2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="42" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="42" t="s">
+      <c r="J2" s="53"/>
+      <c r="K2" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="42" t="s">
+      <c r="L2" s="53"/>
+      <c r="M2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="50"/>
-      <c r="O2" s="42" t="s">
+      <c r="N2" s="53"/>
+      <c r="O2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="42" t="s">
+      <c r="P2" s="53"/>
+      <c r="Q2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="50"/>
-      <c r="S2" s="42" t="s">
+      <c r="R2" s="53"/>
+      <c r="S2" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="50"/>
-      <c r="U2" s="42" t="s">
+      <c r="T2" s="53"/>
+      <c r="U2" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="50"/>
-      <c r="W2" s="42" t="s">
+      <c r="V2" s="53"/>
+      <c r="W2" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="42" t="s">
+      <c r="X2" s="53"/>
+      <c r="Y2" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="42" t="s">
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="42" t="s">
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="42" t="s">
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="42" t="s">
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="42" t="s">
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="AJ2" s="42"/>
+      <c r="AJ2" s="52"/>
     </row>
     <row r="3" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="43">
+      <c r="C3" s="42">
         <v>44575</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="43">
+      <c r="D3" s="43"/>
+      <c r="E3" s="42">
         <v>44582</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="43">
+      <c r="F3" s="43"/>
+      <c r="G3" s="42">
         <v>44589</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="43">
+      <c r="H3" s="43"/>
+      <c r="I3" s="42">
         <v>44596</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="43">
+      <c r="J3" s="43"/>
+      <c r="K3" s="42">
         <v>44603</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="43">
+      <c r="L3" s="43"/>
+      <c r="M3" s="42">
         <v>44610</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="43">
+      <c r="N3" s="43"/>
+      <c r="O3" s="42">
         <v>44617</v>
       </c>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="43">
+      <c r="P3" s="43"/>
+      <c r="Q3" s="42">
         <v>44624</v>
       </c>
-      <c r="R3" s="45"/>
-      <c r="S3" s="43">
+      <c r="R3" s="43"/>
+      <c r="S3" s="42">
         <v>44631</v>
       </c>
-      <c r="T3" s="45"/>
-      <c r="U3" s="43">
+      <c r="T3" s="43"/>
+      <c r="U3" s="42">
         <v>44638</v>
       </c>
-      <c r="V3" s="45"/>
-      <c r="W3" s="43">
+      <c r="V3" s="43"/>
+      <c r="W3" s="42">
         <v>44645</v>
       </c>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="43">
+      <c r="X3" s="43"/>
+      <c r="Y3" s="42">
         <v>44652</v>
       </c>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="43">
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="42">
         <v>44659</v>
       </c>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="43">
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="42">
         <v>44666</v>
       </c>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="43">
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="42">
         <v>44673</v>
       </c>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="43">
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="42">
         <v>44680</v>
       </c>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="43">
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="42">
         <v>44687</v>
       </c>
       <c r="AJ3" s="44"/>
@@ -5262,30 +5262,30 @@
       </c>
     </row>
     <row r="29" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="47"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
@@ -5294,30 +5294,30 @@
       <c r="AB29" s="4"/>
     </row>
     <row r="30" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="49"/>
-      <c r="U30" s="49"/>
-      <c r="V30" s="49"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
@@ -5327,11 +5327,21 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="A29:V29"/>
-    <mergeCell ref="A30:V30"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:V3"/>
@@ -5348,22 +5358,12 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="A29:V29"/>
+    <mergeCell ref="A30:V30"/>
     <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5400,32 +5400,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
@@ -5434,143 +5434,143 @@
     <row r="2" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="42" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="42" t="s">
+      <c r="F2" s="53"/>
+      <c r="G2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="42" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="42" t="s">
+      <c r="J2" s="53"/>
+      <c r="K2" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="42" t="s">
+      <c r="L2" s="53"/>
+      <c r="M2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="50"/>
-      <c r="O2" s="42" t="s">
+      <c r="N2" s="53"/>
+      <c r="O2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="42" t="s">
+      <c r="P2" s="53"/>
+      <c r="Q2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="50"/>
-      <c r="S2" s="42" t="s">
+      <c r="R2" s="53"/>
+      <c r="S2" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="50"/>
-      <c r="U2" s="42" t="s">
+      <c r="T2" s="53"/>
+      <c r="U2" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="50"/>
-      <c r="W2" s="42" t="s">
+      <c r="V2" s="53"/>
+      <c r="W2" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="42" t="s">
+      <c r="X2" s="53"/>
+      <c r="Y2" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="42" t="s">
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="42" t="s">
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="42" t="s">
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="42" t="s">
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="42" t="s">
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="AJ2" s="42"/>
+      <c r="AJ2" s="52"/>
     </row>
     <row r="3" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="43">
+      <c r="C3" s="42">
         <v>44575</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="43">
+      <c r="D3" s="43"/>
+      <c r="E3" s="42">
         <v>44582</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="43">
+      <c r="F3" s="43"/>
+      <c r="G3" s="42">
         <v>44589</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="43">
+      <c r="H3" s="43"/>
+      <c r="I3" s="42">
         <v>44596</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="43">
+      <c r="J3" s="43"/>
+      <c r="K3" s="42">
         <v>44603</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="43">
+      <c r="L3" s="43"/>
+      <c r="M3" s="42">
         <v>44610</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="43">
+      <c r="N3" s="43"/>
+      <c r="O3" s="42">
         <v>44617</v>
       </c>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="43">
+      <c r="P3" s="43"/>
+      <c r="Q3" s="42">
         <v>44624</v>
       </c>
-      <c r="R3" s="45"/>
-      <c r="S3" s="43">
+      <c r="R3" s="43"/>
+      <c r="S3" s="42">
         <v>44631</v>
       </c>
-      <c r="T3" s="45"/>
-      <c r="U3" s="43">
+      <c r="T3" s="43"/>
+      <c r="U3" s="42">
         <v>44638</v>
       </c>
-      <c r="V3" s="45"/>
-      <c r="W3" s="43">
+      <c r="V3" s="43"/>
+      <c r="W3" s="42">
         <v>44645</v>
       </c>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="43">
+      <c r="X3" s="43"/>
+      <c r="Y3" s="42">
         <v>44652</v>
       </c>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="43">
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="42">
         <v>44659</v>
       </c>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="43">
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="42">
         <v>44666</v>
       </c>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="43">
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="42">
         <v>44673</v>
       </c>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="43">
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="42">
         <v>44680</v>
       </c>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="43">
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="42">
         <v>44687</v>
       </c>
       <c r="AJ3" s="44"/>
@@ -9000,30 +9000,30 @@
       </c>
     </row>
     <row r="29" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="47"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
@@ -9032,30 +9032,30 @@
       <c r="AB29" s="4"/>
     </row>
     <row r="30" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="49"/>
-      <c r="U30" s="49"/>
-      <c r="V30" s="49"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
@@ -9065,6 +9065,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="A29:V29"/>
+    <mergeCell ref="A30:V30"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AG3:AH3"/>
     <mergeCell ref="AC2:AD2"/>
@@ -9081,27 +9102,6 @@
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="A29:V29"/>
-    <mergeCell ref="A30:V30"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
